--- a/biology/Médecine/Triverius/Triverius.xlsx
+++ b/biology/Médecine/Triverius/Triverius.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jérémie de Drijvere, ou Jérémie Trivère, Jérémie Thriveris, en latin Triverius, né à Nederbrakel en 1504 et mort à Louvain vers 1550-1554, est un médecin des Pays-Bas espagnols.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Fils d’un barbier, Jeremias de Drijverei est envoyé à Louvain, au Collegium Trilingue créé par Jérôme de Busleyden. Il y étudie les langues classiques et termine premier de sa promotion en 1522 à l’âge de 18 ans. Il s’inscrit ensuite à la faculté de Médecine tout en occupant déjà un poste de professeur à la Faculté des Arts. On ne sait pas quand il obtint son grade de bachelier mais on est certain qu’il fut admis au Sénat Académique en 1531 comme membre de la “Facultas Artium”. Cette même année, il publie son premier livre Disceptatio de decurissimo victu, a Neotercis perperam praescripto. C’est à cette période qu’il a dû connaître André Vésale, son cadet de dix ans, qui commença en 1531 ses études au Collège Trilingue.
 Promu médecin à l’université de Louvain en 1537, il y devient professeur de médecine en 1541. Il s’intéresse à la pathologie et traduit plusieurs œuvres d’Hippocrate et de Galien.
@@ -545,7 +559,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>De missione sanguinis in pleuritide, ac aliis phlegmonis tam externis quam internis omnibus cum Petro Brissoto &amp; Leonardo Fuchsio disceptatio ad medicos Parisienses, Louvain, Bartholomaeus Gravius, 1532
 Novi et integri commentarii in omnes Galeni libros de temperamentis, Lyon, Guillaume Rouillé, 1547 Lire en ligne sur Gallica.
